--- a/hw2/student.xlsx
+++ b/hw2/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyuck Han\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_dir\hhyuck\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40A9804-9F77-4A98-BC56-5795ACEC78D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D06E26-9BBF-45C8-86A6-F1DE4A59834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="17910" windowHeight="11385" xr2:uid="{113A7825-E5D1-4A9B-8E41-6BE43BD13DD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DEA3E4F4-D730-8649-BA72-4D2D763AEF45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,7 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>midterm</t>
+    <t>midtern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,11 +80,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Olvia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amela</t>
+    <t>Olivia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amelia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +104,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chole</t>
+    <t>Chloe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isabelle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jessica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charlotte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emma+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarlett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abigail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daisy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hannah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maryam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sienna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elsie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matilda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evelyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Millie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annabelle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emilia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mila</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Willow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amelie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maisie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Katie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harriet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gracie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +370,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -151,8 +407,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,19 +727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C8020-B2CE-4F0F-802A-933F613003E6}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15081CFD-F83E-FE4F-AF87-946028BDE2FD}">
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G2" sqref="G2:H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,15 +762,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>20190001</v>
-      </c>
-      <c r="B2" t="s">
+        <v>20140001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>53</v>
@@ -526,18 +782,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>20190002</v>
-      </c>
-      <c r="B3" t="s">
+        <v>20140002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3">
         <v>94</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>33</v>
@@ -546,18 +802,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>20190003</v>
-      </c>
-      <c r="B4" t="s">
+        <v>20140003</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4">
         <v>37</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>46</v>
@@ -566,15 +822,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>20190004</v>
-      </c>
-      <c r="B5" t="s">
+        <v>20140004</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -586,18 +842,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>20190005</v>
-      </c>
-      <c r="B6" t="s">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <v>93</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -606,15 +862,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>20190006</v>
-      </c>
-      <c r="B7" t="s">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -626,18 +882,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>20190007</v>
-      </c>
-      <c r="B8" t="s">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8">
         <v>71</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>54</v>
@@ -646,15 +902,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>20190008</v>
-      </c>
-      <c r="B9" t="s">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>62</v>
@@ -666,15 +922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>20190009</v>
-      </c>
-      <c r="B10" t="s">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>92</v>
@@ -686,18 +942,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>20190010</v>
-      </c>
-      <c r="B11" t="s">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11">
         <v>91</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>39</v>
@@ -706,9 +962,1292 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>20150011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>20150013</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>99</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>20150015</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>20150017</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>20150019</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>20150021</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>20150023</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>20150025</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20150027</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20150029</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20161001</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>20161002</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>20161003</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>20161004</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>20161005</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>20161006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>20161007</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>20161008</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>20161009</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>20161010</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>20161011</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>85</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>20161012</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>20161013</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>91</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>20161014</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>20161015</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>97</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>20161016</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>20161017</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>20161018</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>20161019</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>20161020</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>95</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>20161021</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>20161022</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>98</v>
+      </c>
+      <c r="E43">
+        <v>78</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>20161023</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>20161024</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>80</v>
+      </c>
+      <c r="E45">
+        <v>52</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>20161025</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>20161026</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>20161027</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>20161028</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>21</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>20161029</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>71</v>
+      </c>
+      <c r="D50">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>20161030</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>83</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>20161031</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>20161032</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>99</v>
+      </c>
+      <c r="E53">
+        <v>77</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>20161033</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>73</v>
+      </c>
+      <c r="D54">
+        <v>66</v>
+      </c>
+      <c r="E54">
+        <v>81</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>20161034</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>64</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>20161035</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>20161036</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>38</v>
+      </c>
+      <c r="E57">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>20161037</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>80</v>
+      </c>
+      <c r="E58">
+        <v>86</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>20161038</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>20161039</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>92</v>
+      </c>
+      <c r="D60">
+        <v>73</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>20161040</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>32</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>20161041</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>20161042</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>20161043</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>37</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>20161044</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>93</v>
+      </c>
+      <c r="D65">
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>20161045</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>20161046</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+      <c r="D67">
+        <v>32</v>
+      </c>
+      <c r="E67">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>20161047</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>58</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>20161048</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>20161049</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70">
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <v>72</v>
+      </c>
+      <c r="E70">
+        <v>89</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>20161050</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>29</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>20161051</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72">
+        <v>97</v>
+      </c>
+      <c r="D72">
+        <v>94</v>
+      </c>
+      <c r="E72">
+        <v>53</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>20161052</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>20161053</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>55</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>20161054</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>44</v>
+      </c>
+      <c r="E75">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H75">
+    <sortCondition ref="A2:A75"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>